--- a/src/main/resources/input/studentPref.xlsx
+++ b/src/main/resources/input/studentPref.xlsx
@@ -12,393 +12,957 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="129">
-  <si>
-    <t>KIMBERLY BAKER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="317">
+  <si>
+    <t>GERALD PATTERSON</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Using rfid to improve ranting about liberals</t>
-  </si>
-  <si>
-    <t>View of dagon in revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Security analysis of exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in composing classical music</t>
-  </si>
-  <si>
-    <t>Using ai to streamline shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making dumb comedies</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting capitalism</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eating exotic foods</t>
+    <t>Security analysis of writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing pop songs</t>
+  </si>
+  <si>
+    <t>Security analysis of campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing pop songs</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing rap songs</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing experimental songs</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Security analysis of performing serious acting</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing poetry</t>
+  </si>
+  <si>
+    <t>LEONARD POWELL</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Using rfid to improve moaning about men</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about politics</t>
+  </si>
+  <si>
+    <t>Using rfid to improve talking up the economy</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing interns</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying genetics</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing the piano</t>
+  </si>
+  <si>
+    <t>EUGENE MITCHELL</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>View of dagon in making billions</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in causing mayhem</t>
+  </si>
+  <si>
+    <t>Using ai to streamline performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Using rfid to improve disappointing the family</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Security analysis of writing beat fiction</t>
+  </si>
+  <si>
+    <t>Security analysis of extracting confessions</t>
+  </si>
+  <si>
+    <t>PAMELA WILLIAMS</t>
+  </si>
+  <si>
+    <t>Security analysis of coasting on past glories</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing interns</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing country music</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>View of dagon in treating the sick</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing street magic</t>
+  </si>
+  <si>
+    <t>View of dagon in womanizing</t>
+  </si>
+  <si>
+    <t>EMILY BAKER</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in falling gracefully</t>
+  </si>
+  <si>
+    <t>Security analysis of moaning about men</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Using rfid to improve causing mayhem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>NICOLE DIAZ</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing modern fiction</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Security analysis of pedalling furiously</t>
+  </si>
+  <si>
+    <t>Security analysis of working out</t>
+  </si>
+  <si>
+    <t>Security analysis of collecting fossils</t>
+  </si>
+  <si>
+    <t>View of dagon in managing hedge funds</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pretending to fight</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>RUSSELL WOOD</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about minorities</t>
+  </si>
+  <si>
+    <t>Using rfid to improve leading revolutions</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing plays</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Security analysis of twirling a cane</t>
+  </si>
+  <si>
+    <t>Security analysis of constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>View of dagon in studying mathematics</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Using ai to streamline flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in selling fried chicken</t>
+  </si>
+  <si>
+    <t>ERNEST BARNES</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting wabbits</t>
+  </si>
+  <si>
+    <t>Security analysis of commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Using ai to streamline plotting strategies</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing baseball</t>
   </si>
   <si>
     <t>View of dagon in ranting about liberals</t>
   </si>
   <si>
-    <t>CAROL MARTINEZ</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about minorities</t>
-  </si>
-  <si>
-    <t>Security analysis of assassinating presidents</t>
-  </si>
-  <si>
-    <t>Security analysis of worrying about adultery</t>
-  </si>
-  <si>
-    <t>View of dagon in eating exotic foods</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling consumer goods</t>
-  </si>
-  <si>
-    <t>JONATHAN JONES</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in making suspense movies</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in adopting children</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in assassinating presidents</t>
-  </si>
-  <si>
-    <t>Security analysis of performing serious acting</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making insipid musicals</t>
-  </si>
-  <si>
-    <t>Using ai to streamline composing classical music</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating the inedible,</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making suspense movies</t>
-  </si>
-  <si>
-    <t>View of dagon in exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>STEPHEN WARD</t>
-  </si>
-  <si>
-    <t>View of dagon in climbing social ladders</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling consumer goods</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing comedy</t>
+    <t>Using rfid to improve starring in comedies</t>
+  </si>
+  <si>
+    <t>WENDY FOSTER</t>
+  </si>
+  <si>
+    <t>Security analysis of piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in adopting children</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve wearing tights</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>RUTH FLORES</t>
+  </si>
+  <si>
+    <t>Using ai to streamline telling affable jokes</t>
+  </si>
+  <si>
+    <t>View of dagon in pouting on camera</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing opera arias</t>
+  </si>
+  <si>
+    <t>Security analysis of writing epic poetry</t>
+  </si>
+  <si>
+    <t>Using ai to streamline explaining evolution</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in building airplanes</t>
+  </si>
+  <si>
+    <t>Security analysis of painting dark pictures</t>
+  </si>
+  <si>
+    <t>View of dagon in studying the cosmos</t>
+  </si>
+  <si>
+    <t>ALBERT RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing weird movies</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in managing hedge funds</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing blues songs</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making Italian movies</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in painting soup cans</t>
+  </si>
+  <si>
+    <t>FLORENCE TORRES</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Security analysis of slashing victims</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in tricking criminals</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying mathematics</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing intense characters</t>
+  </si>
+  <si>
+    <t>MARY TURNER</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shopping for shoes</t>
   </si>
   <si>
     <t>Worshipping cthulu in fighting with the mob</t>
   </si>
   <si>
-    <t>NICHOLAS POWELL</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting soup cans</t>
-  </si>
-  <si>
-    <t>Security analysis of wearing tights</t>
-  </si>
-  <si>
-    <t>SYLVIA MURPHY</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in causing mayhem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing comedy</t>
-  </si>
-  <si>
-    <t>Using rfid to improve worrying about adultery</t>
-  </si>
-  <si>
-    <t>View of dagon in writing comedy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making insipid musicals</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Security analysis of selling consumer goods</t>
-  </si>
-  <si>
-    <t>Security analysis of making insipid musicals</t>
-  </si>
-  <si>
-    <t>MICHELLE ADAMS</t>
-  </si>
-  <si>
-    <t>Using rfid to improve assassinating presidents</t>
-  </si>
-  <si>
-    <t>Security analysis of winning Oscars</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>ANNA WRIGHT</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning Oscars</t>
-  </si>
-  <si>
-    <t>View of dagon in fighting civil wars</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eating the inedible,</t>
-  </si>
-  <si>
-    <t>JEREMY ALEXANDER</t>
-  </si>
-  <si>
-    <t>RUBY ANDERSON</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
-    <t>Security analysis of adopting children</t>
-  </si>
-  <si>
-    <t>Using rfid to improve talking up the economy</t>
-  </si>
-  <si>
-    <t>LOUISE PARKER</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Using ai to streamline painting over photographs</t>
-  </si>
-  <si>
-    <t>MIKE FOSTER</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in Research Activity</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>RODNEY HERNANDEZ</t>
-  </si>
-  <si>
-    <t>View of dagon in lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Using ai to streamline watching TV</t>
-  </si>
-  <si>
-    <t>Using rfid to improve watching TV</t>
-  </si>
-  <si>
-    <t>BENJAMIN MORGAN</t>
-  </si>
-  <si>
-    <t>JULIE WILLIAMS</t>
-  </si>
-  <si>
-    <t>JESSE LEWIS</t>
-  </si>
-  <si>
-    <t>Security analysis of writing comedy</t>
-  </si>
-  <si>
-    <t>ARTHUR DIAZ</t>
-  </si>
-  <si>
-    <t>KEVIN JENKINS</t>
-  </si>
-  <si>
-    <t>Using ai to streamline wearing tights</t>
-  </si>
-  <si>
-    <t>LOUIS JENKINS</t>
-  </si>
-  <si>
-    <t>BOBBY BROOKS</t>
-  </si>
-  <si>
-    <t>AARON NELSON</t>
-  </si>
-  <si>
-    <t>JESSICA DIAZ</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>RODNEY BROWN</t>
+    <t>Using excel to analyse patterns in talking up the economy</t>
+  </si>
+  <si>
+    <t>Security analysis of making suspense movies</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing grungy music</t>
+  </si>
+  <si>
+    <t>Using ai to streamline surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Security analysis of making idealistic movies</t>
+  </si>
+  <si>
+    <t>HOWARD FLORES</t>
+  </si>
+  <si>
+    <t>Security analysis of representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing romantic songs</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about sex</t>
+  </si>
+  <si>
+    <t>Using ai to streamline attending cocktail parties</t>
+  </si>
+  <si>
+    <t>HAROLD GREEN</t>
+  </si>
+  <si>
+    <t>Security analysis of performing magic tricks</t>
+  </si>
+  <si>
+    <t>Security analysis of defending the weak</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in action movies</t>
+  </si>
+  <si>
+    <t>THOMAS FLORES</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Security analysis of singing protest songs,</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in planting evidence</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Using rfid to improve working out</t>
+  </si>
+  <si>
+    <t>DIANA FOSTER</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting feminism</t>
+  </si>
+  <si>
+    <t>Security analysis of attending cocktail parties</t>
+  </si>
+  <si>
+    <t>PHILLIP BUTLER</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making idealistic movies</t>
+  </si>
+  <si>
+    <t>Using ai to streamline drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Security analysis of fighting for liberty</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hitting home runs</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing horror stories</t>
+  </si>
+  <si>
+    <t>LAURA WOOD</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in comedies</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Using ai to streamline escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Security analysis of painting soup cans</t>
+  </si>
+  <si>
+    <t>SAMUEL WRIGHT</t>
+  </si>
+  <si>
+    <t>Using rfid to improve testing scientific theories</t>
+  </si>
+  <si>
+    <t>Using rfid to improve driving around America</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Security analysis of singing country music</t>
+  </si>
+  <si>
+    <t>STANLEY HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Security analysis of offering medical opinions</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in bodybuilding</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in picking weird children names</t>
+  </si>
+  <si>
+    <t>Using ai to streamline falling gracefully</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in comedies</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating Peking duck</t>
+  </si>
+  <si>
+    <t>VINCENT MARTIN</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>Using ai to streamline building giant walls</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing grungy music</t>
+  </si>
+  <si>
+    <t>View of dagon in dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Security analysis of painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in devising evil schemes</t>
+  </si>
+  <si>
+    <t>VICTORIA JOHNSON</t>
+  </si>
+  <si>
+    <t>Using rfid to improve  launching foreign wars</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in complaining about life</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in piloting the lunar module</t>
+  </si>
+  <si>
+    <t>Using rfid to improve condescending to customers</t>
+  </si>
+  <si>
+    <t>KIM SANDERS</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Security analysis of singing opera arias</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about life</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting for justice</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>HARRY MITCHELL</t>
+  </si>
+  <si>
+    <t>Security analysis of selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Security analysis of gadding about town</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>View of dagon in hosting radio shows</t>
+  </si>
+  <si>
+    <t>View of dagon in developing real estate</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Using rfid to improve seducing emperors</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting capitalism</t>
+  </si>
+  <si>
+    <t>ALLEN PHILLIPS</t>
+  </si>
+  <si>
+    <t>Using ai to streamline complaining about big brother</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hosting radio shows</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>View of dagon in working out</t>
+  </si>
+  <si>
+    <t>RALPH MORGAN</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Security analysis of writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Using rfid to improve mass-producing cars</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>DENISE COLLINS</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>Security analysis of stealing jewels</t>
+  </si>
+  <si>
+    <t>Using rfid to improve Research Activity</t>
+  </si>
+  <si>
+    <t>View of dagon in selling consumer goods</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in coasting on past glories</t>
+  </si>
+  <si>
+    <t>GEORGE HENDERSON</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying symbols</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating the inedible,</t>
+  </si>
+  <si>
+    <t>Using rfid to improve womanizing</t>
+  </si>
+  <si>
+    <t>TAMMY WRIGHT</t>
+  </si>
+  <si>
+    <t>View of dagon in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending the Earth</t>
+  </si>
+  <si>
+    <t>Using ai to streamline struggling with modern times</t>
+  </si>
+  <si>
+    <t>Security analysis of womanizing</t>
+  </si>
+  <si>
+    <t>View of dagon in revelling in blood spatter</t>
+  </si>
+  <si>
+    <t>RANDY ROSS</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing reggae songs</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing pop songs</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing short stories</t>
+  </si>
+  <si>
+    <t>PATRICK SANDERS</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a new-age website</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in comedies</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>View of dagon in playing grungy music</t>
+  </si>
+  <si>
+    <t>Using rfid to improve licking frogs</t>
+  </si>
+  <si>
+    <t>LORI MOORE</t>
+  </si>
+  <si>
+    <t>Security analysis of explaining natural selection</t>
+  </si>
+  <si>
+    <t>ANDREW LONG</t>
+  </si>
+  <si>
+    <t>Security analysis of modeling DNA</t>
+  </si>
+  <si>
+    <t>View of dagon in seducing women</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in indy movies</t>
+  </si>
+  <si>
+    <t>View of dagon in eating people</t>
+  </si>
+  <si>
+    <t>ANGELA MORGAN</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Using rfid to improve developing real estate</t>
+  </si>
+  <si>
+    <t>KEVIN STEWART</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Using rfid to improve building giant walls</t>
+  </si>
+  <si>
+    <t>EDWARD FLORES</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying genetics</t>
+  </si>
+  <si>
+    <t>JOSE THOMAS</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in womanizing</t>
+  </si>
+  <si>
+    <t>Using rfid to improve competing in athletic events</t>
+  </si>
+  <si>
+    <t>Using ai to streamline spreading fear</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>CRYSTAL TORRES</t>
+  </si>
+  <si>
+    <t>View of dagon in writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hosting radio shows</t>
+  </si>
+  <si>
+    <t>RAYMOND PERRY</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in crooning love songs</t>
+  </si>
+  <si>
+    <t>STEPHANIE GONZALEZ</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>View of dagon in solving crimes</t>
+  </si>
+  <si>
+    <t>Security analysis of singing experimental songs</t>
+  </si>
+  <si>
+    <t>GERALD MORRIS</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing short stories</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>View of dagon in waxing a surfboard</t>
+  </si>
+  <si>
+    <t>HEATHER WATSON</t>
+  </si>
+  <si>
+    <t>Security analysis of recording pop songs</t>
+  </si>
+  <si>
+    <t>SYLVIA ANDERSON</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing blues songs</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in attacking paparazzi</t>
   </si>
   <si>
-    <t>SYLVIA TURNER</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing comedy</t>
-  </si>
-  <si>
-    <t>Using rfid to improve revolutionizing physics</t>
-  </si>
-  <si>
-    <t>MARY TORRES</t>
-  </si>
-  <si>
-    <t>CRYSTAL KELLY</t>
-  </si>
-  <si>
-    <t>CLARENCE DAVIS</t>
-  </si>
-  <si>
-    <t>GLADYS HUGHES</t>
-  </si>
-  <si>
-    <t>JOAN LEWIS</t>
-  </si>
-  <si>
-    <t>ANTONIO STEWART</t>
-  </si>
-  <si>
-    <t>MILDRED BAILEY</t>
-  </si>
-  <si>
-    <t>JACK BRYANT</t>
-  </si>
-  <si>
-    <t>View of dagon in watching TV</t>
-  </si>
-  <si>
-    <t>JUAN KELLY</t>
-  </si>
-  <si>
-    <t>JOYCE SCOTT</t>
-  </si>
-  <si>
-    <t>HELEN LOPEZ</t>
-  </si>
-  <si>
-    <t>JONATHAN CLARK</t>
-  </si>
-  <si>
-    <t>KATHRYN JAMES</t>
-  </si>
-  <si>
-    <t>CYNTHIA WILLIAMS</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>THERESA COLLINS</t>
-  </si>
-  <si>
-    <t>TIFFANY JENKINS</t>
-  </si>
-  <si>
-    <t>DAVID POWELL</t>
-  </si>
-  <si>
-    <t>JOYCE GONZALES</t>
-  </si>
-  <si>
-    <t>FRANK STEWART</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in making insipid musicals</t>
-  </si>
-  <si>
-    <t>JESSE ROGERS</t>
-  </si>
-  <si>
-    <t>HENRY FLORES</t>
-  </si>
-  <si>
-    <t>View of dagon in attacking paparazzi</t>
-  </si>
-  <si>
-    <t>ANN GARCIA</t>
-  </si>
-  <si>
-    <t>MICHELLE LONG</t>
-  </si>
-  <si>
-    <t>JERRY WRIGHT</t>
-  </si>
-  <si>
-    <t>NATHAN EVANS</t>
-  </si>
-  <si>
-    <t>SAMUEL YOUNG</t>
-  </si>
-  <si>
-    <t>View of dagon in making suspense movies</t>
-  </si>
-  <si>
-    <t>SHERRY HOWARD</t>
-  </si>
-  <si>
-    <t>Security analysis of writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>FRANCES GONZALES</t>
-  </si>
-  <si>
-    <t>BARBARA COX</t>
-  </si>
-  <si>
-    <t>ALLEN COOPER</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>JANE GARCIA</t>
-  </si>
-  <si>
-    <t>DANNY MOORE</t>
-  </si>
-  <si>
-    <t>PETER WARD</t>
-  </si>
-  <si>
-    <t>BARBARA STEWART</t>
-  </si>
-  <si>
-    <t>PEGGY CLARK</t>
-  </si>
-  <si>
-    <t>JEAN LEWIS</t>
+    <t>Using excel to analyse patterns in teaching the next generation</t>
+  </si>
+  <si>
+    <t>WANDA HILL</t>
+  </si>
+  <si>
+    <t>Using ai to streamline painting dark pictures</t>
+  </si>
+  <si>
+    <t>VICTORIA KELLY</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in exploring the new world</t>
+  </si>
+  <si>
+    <t>ADAM PERRY</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing blues songs</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing about social problems</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in indy movies</t>
+  </si>
+  <si>
+    <t>SHERRY COX</t>
+  </si>
+  <si>
+    <t>MARILYN BAILEY</t>
+  </si>
+  <si>
+    <t>Using rfid to improve brokering peace deals</t>
+  </si>
+  <si>
+    <t>RODNEY JAMES</t>
+  </si>
+  <si>
+    <t>Security analysis of testing scientific theories</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making bad movie choices</t>
+  </si>
+  <si>
+    <t>NORMAN BROOKS</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in piloting the Millenium Falcon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in reading braille</t>
+  </si>
+  <si>
+    <t>View of dagon in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>WALTER CAMPBELL</t>
+  </si>
+  <si>
+    <t>Using rfid to improve lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Using ai to streamline solving crimes</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing romantic songs</t>
+  </si>
+  <si>
+    <t>ARTHUR HERNANDEZ</t>
+  </si>
+  <si>
+    <t>STANLEY HALL</t>
+  </si>
+  <si>
+    <t>Using ai to streamline directing the business of state</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>MICHELLE COX</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in commiting perjury</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing rabbits</t>
+  </si>
+  <si>
+    <t>Using rfid to improve tricking criminals</t>
+  </si>
+  <si>
+    <t>CARLOS FLORES</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting big business</t>
+  </si>
+  <si>
+    <t>SHIRLEY HAYES</t>
+  </si>
+  <si>
+    <t>Using ai to streamline living amongst apes</t>
+  </si>
+  <si>
+    <t>SHERRY PERRY</t>
+  </si>
+  <si>
+    <t>Security analysis of singing reggae songs</t>
+  </si>
+  <si>
+    <t>JANE SCOTT</t>
+  </si>
+  <si>
+    <t>Security analysis of Research Activity</t>
+  </si>
+  <si>
+    <t>LOIS GONZALEZ</t>
+  </si>
+  <si>
+    <t>Security analysis of complaining about life</t>
   </si>
 </sst>
 </file>
@@ -478,103 +1042,103 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>2.0216953E7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
         <v>2.0216954E7</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
         <v>2.0216955E7</v>
@@ -583,80 +1147,80 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
         <v>2.0216956E7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B6" t="n">
         <v>2.0216957E7</v>
@@ -665,39 +1229,39 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>2.0216958E7</v>
@@ -706,80 +1270,80 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B8" t="n">
         <v>2.0216959E7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B9" t="n">
         <v>2.021696E7</v>
@@ -788,39 +1352,39 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B10" t="n">
         <v>2.0216961E7</v>
@@ -829,80 +1393,80 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B11" t="n">
         <v>2.0216962E7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B12" t="n">
         <v>2.0216963E7</v>
@@ -911,244 +1475,244 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B13" t="n">
         <v>2.0216964E7</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B14" t="n">
         <v>2.0216965E7</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="B15" t="n">
         <v>2.0216966E7</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B16" t="n">
         <v>2.0216967E7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B17" t="n">
         <v>2.0216968E7</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B18" t="n">
         <v>2.0216969E7</v>
@@ -1157,162 +1721,162 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B19" t="n">
         <v>2.021697E7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="M19" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="B20" t="n">
         <v>2.0216971E7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="B21" t="n">
         <v>2.0216972E7</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M21" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="B22" t="n">
         <v>2.0216973E7</v>
@@ -1321,121 +1885,121 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>6</v>
-      </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B23" t="n">
         <v>2.0216974E7</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B24" t="n">
         <v>2.0216975E7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="B25" t="n">
         <v>2.0216976E7</v>
@@ -1444,80 +2008,80 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="B26" t="n">
         <v>2.0216977E7</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="B27" t="n">
         <v>2.0216978E7</v>
@@ -1526,80 +2090,80 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="M27" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="B28" t="n">
         <v>2.0216979E7</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="B29" t="n">
         <v>2.021698E7</v>
@@ -1608,80 +2172,80 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I29" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="B30" t="n">
         <v>2.0216981E7</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M30" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="B31" t="n">
         <v>2.0216982E7</v>
@@ -1690,39 +2254,39 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="B32" t="n">
         <v>2.0216983E7</v>
@@ -1731,39 +2295,39 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="B33" t="n">
         <v>2.0216984E7</v>
@@ -1772,39 +2336,39 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="B34" t="n">
         <v>2.0216985E7</v>
@@ -1813,408 +2377,408 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="K34" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="B35" t="n">
         <v>2.0216986E7</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="K35" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="L35" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="B36" t="n">
         <v>2.0216987E7</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="I36" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="M36" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="B37" t="n">
         <v>2.0216988E7</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J37" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="B38" t="n">
         <v>2.0216989E7</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="F38" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="I38" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B39" t="n">
         <v>2.021699E7</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="B40" t="n">
         <v>2.0216991E7</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="H40" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="J40" t="s">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="B41" t="n">
         <v>2.0216992E7</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="J41" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="M41" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="B42" t="n">
         <v>2.0216993E7</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="J42" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M42" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="B43" t="n">
         <v>2.0216994E7</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L43" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="M43" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="B44" t="n">
         <v>2.0216995E7</v>
@@ -2223,203 +2787,203 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="J44" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="M44" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="B45" t="n">
         <v>2.0216996E7</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="G45" t="s">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="B46" t="n">
         <v>2.0216997E7</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="K46" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="L46" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="B47" t="n">
         <v>2.0216998E7</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>233</v>
+      </c>
+      <c r="I47" t="s">
+        <v>281</v>
+      </c>
+      <c r="J47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" t="s">
+        <v>282</v>
+      </c>
+      <c r="M47" t="s">
         <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" t="s">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
       <c r="B48" t="n">
         <v>2.0216999E7</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I48" t="s">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="K48" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="M48" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="B49" t="n">
         <v>2.0217E7</v>
@@ -2428,39 +2992,39 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="K49" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="M49" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="B50" t="n">
         <v>2.0217001E7</v>
@@ -2469,39 +3033,39 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="B51" t="n">
         <v>2.0217002E7</v>
@@ -2510,80 +3074,80 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="H51" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="L51" t="s">
-        <v>6</v>
+        <v>274</v>
       </c>
       <c r="M51" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B52" t="n">
         <v>2.0217003E7</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="J52" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="K52" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="L52" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="M52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="B53" t="n">
         <v>2.0217004E7</v>
@@ -2592,39 +3156,39 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="I53" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L53" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="B54" t="n">
         <v>2.0217005E7</v>
@@ -2633,121 +3197,121 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="I54" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="K54" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="L54" t="s">
-        <v>3</v>
+        <v>301</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="B55" t="n">
         <v>2.0217006E7</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="J55" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="L55" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="B56" t="n">
         <v>2.0217007E7</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="M56" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="B57" t="n">
         <v>2.0217008E7</v>
@@ -2756,157 +3320,157 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="H57" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="J57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="M57" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="B58" t="n">
         <v>2.0217009E7</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="J58" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M58" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="B59" t="n">
         <v>2.021701E7</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="I59" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="J59" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L59" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="M59" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>315</v>
       </c>
       <c r="B60" t="n">
         <v>2.0217011E7</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="K60" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="L60" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="M60" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
